--- a/www.eia.gov/electricity/monthly/xls/table_4_09_b.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_4_09_b.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="77">
   <si>
-    <t>Table 4.9.B. Receipts of Natural Gas Delivered for Electricity Generation by State, (Year-to-Date) October 2016 and 2015</t>
+    <t>Table 4.9.B. Receipts of Natural Gas Delivered for Electricity Generation by State, (Year-to-Date) November 2016 and 2015</t>
   </si>
   <si>
     <t>(Million Cubic Feet)</t>
@@ -55,10 +55,10 @@
     <t>Industrial Sector</t>
   </si>
   <si>
-    <t>October 2016 YTD</t>
-  </si>
-  <si>
-    <t>October 2015 YTD</t>
+    <t>November 2016 YTD</t>
+  </si>
+  <si>
+    <t>November 2015 YTD</t>
   </si>
   <si>
     <t>Percentage Change</t>
@@ -1356,25 +1356,25 @@
         <v>13</v>
       </c>
       <c r="B6" s="13">
-        <v>323209</v>
+        <v>347456</v>
       </c>
       <c r="C6" s="13">
-        <v>318522</v>
+        <v>343494</v>
       </c>
       <c r="D6" s="14">
-        <v>1.4999999999999999E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="E6" s="13">
-        <v>1882</v>
+        <v>1900</v>
       </c>
       <c r="F6" s="13">
-        <v>2104</v>
+        <v>2164</v>
       </c>
       <c r="G6" s="13">
-        <v>321327</v>
+        <v>345556</v>
       </c>
       <c r="H6" s="13">
-        <v>316419</v>
+        <v>341330</v>
       </c>
       <c r="I6" s="13">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>14</v>
       </c>
       <c r="B7" s="16">
-        <v>99746</v>
+        <v>109207</v>
       </c>
       <c r="C7" s="16">
-        <v>95681</v>
+        <v>105211</v>
       </c>
       <c r="D7" s="17">
-        <v>4.2000000000000003E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="E7" s="16">
         <v>0</v>
@@ -1409,10 +1409,10 @@
         <v>0</v>
       </c>
       <c r="G7" s="16">
-        <v>99746</v>
+        <v>109207</v>
       </c>
       <c r="H7" s="16">
-        <v>95681</v>
+        <v>105211</v>
       </c>
       <c r="I7" s="16">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>15</v>
       </c>
       <c r="B8" s="16">
-        <v>20641</v>
+        <v>21769</v>
       </c>
       <c r="C8" s="16">
-        <v>14954</v>
+        <v>16767</v>
       </c>
       <c r="D8" s="17">
-        <v>0.38</v>
+        <v>0.3</v>
       </c>
       <c r="E8" s="16">
         <v>0</v>
@@ -1447,10 +1447,10 @@
         <v>0</v>
       </c>
       <c r="G8" s="16">
-        <v>20641</v>
+        <v>21769</v>
       </c>
       <c r="H8" s="16">
-        <v>14954</v>
+        <v>16767</v>
       </c>
       <c r="I8" s="16">
         <v>0</v>
@@ -1470,25 +1470,25 @@
         <v>16</v>
       </c>
       <c r="B9" s="16">
-        <v>133155</v>
+        <v>140829</v>
       </c>
       <c r="C9" s="16">
-        <v>129047</v>
+        <v>136748</v>
       </c>
       <c r="D9" s="17">
-        <v>3.2000000000000001E-2</v>
+        <v>0.03</v>
       </c>
       <c r="E9" s="16">
-        <v>1431</v>
+        <v>1449</v>
       </c>
       <c r="F9" s="16">
-        <v>1828</v>
+        <v>1856</v>
       </c>
       <c r="G9" s="16">
-        <v>131724</v>
+        <v>139381</v>
       </c>
       <c r="H9" s="16">
-        <v>127219</v>
+        <v>134892</v>
       </c>
       <c r="I9" s="16">
         <v>0</v>
@@ -1508,10 +1508,10 @@
         <v>17</v>
       </c>
       <c r="B10" s="16">
-        <v>28597</v>
+        <v>31677</v>
       </c>
       <c r="C10" s="16">
-        <v>36208</v>
+        <v>40004</v>
       </c>
       <c r="D10" s="17">
         <v>-0.21</v>
@@ -1520,13 +1520,13 @@
         <v>451</v>
       </c>
       <c r="F10" s="16">
-        <v>276</v>
+        <v>308</v>
       </c>
       <c r="G10" s="16">
-        <v>28146</v>
+        <v>31226</v>
       </c>
       <c r="H10" s="16">
-        <v>35933</v>
+        <v>39696</v>
       </c>
       <c r="I10" s="16">
         <v>0</v>
@@ -1546,13 +1546,13 @@
         <v>18</v>
       </c>
       <c r="B11" s="16">
-        <v>41070</v>
+        <v>43973</v>
       </c>
       <c r="C11" s="16">
-        <v>42632</v>
+        <v>44764</v>
       </c>
       <c r="D11" s="17">
-        <v>-3.6999999999999998E-2</v>
+        <v>-1.7999999999999999E-2</v>
       </c>
       <c r="E11" s="16">
         <v>0</v>
@@ -1561,10 +1561,10 @@
         <v>0</v>
       </c>
       <c r="G11" s="16">
-        <v>41070</v>
+        <v>43973</v>
       </c>
       <c r="H11" s="16">
-        <v>42632</v>
+        <v>44764</v>
       </c>
       <c r="I11" s="16">
         <v>0</v>
@@ -1622,25 +1622,25 @@
         <v>21</v>
       </c>
       <c r="B13" s="13">
-        <v>1040417</v>
+        <v>1122109</v>
       </c>
       <c r="C13" s="13">
-        <v>935149</v>
+        <v>1021325</v>
       </c>
       <c r="D13" s="14">
-        <v>0.11</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="E13" s="13">
-        <v>89561</v>
+        <v>95101</v>
       </c>
       <c r="F13" s="13">
-        <v>85114</v>
+        <v>92484</v>
       </c>
       <c r="G13" s="13">
-        <v>948873</v>
+        <v>1024665</v>
       </c>
       <c r="H13" s="13">
-        <v>848346</v>
+        <v>927009</v>
       </c>
       <c r="I13" s="13">
         <v>0</v>
@@ -1649,10 +1649,10 @@
         <v>0</v>
       </c>
       <c r="K13" s="13">
-        <v>1984</v>
+        <v>2344</v>
       </c>
       <c r="L13" s="13">
-        <v>1689</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1660,13 +1660,13 @@
         <v>22</v>
       </c>
       <c r="B14" s="16">
-        <v>270533</v>
+        <v>289404</v>
       </c>
       <c r="C14" s="16">
-        <v>222320</v>
+        <v>244886</v>
       </c>
       <c r="D14" s="17">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
       <c r="E14" s="16">
         <v>0</v>
@@ -1675,10 +1675,10 @@
         <v>0</v>
       </c>
       <c r="G14" s="16">
-        <v>270533</v>
+        <v>289404</v>
       </c>
       <c r="H14" s="16">
-        <v>222320</v>
+        <v>244886</v>
       </c>
       <c r="I14" s="16">
         <v>0</v>
@@ -1698,25 +1698,25 @@
         <v>23</v>
       </c>
       <c r="B15" s="16">
-        <v>367926</v>
+        <v>393370</v>
       </c>
       <c r="C15" s="16">
-        <v>365192</v>
+        <v>394485</v>
       </c>
       <c r="D15" s="17">
-        <v>7.0000000000000001E-3</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="E15" s="16">
-        <v>89561</v>
+        <v>95101</v>
       </c>
       <c r="F15" s="16">
-        <v>85114</v>
+        <v>92484</v>
       </c>
       <c r="G15" s="16">
-        <v>277642</v>
+        <v>297438</v>
       </c>
       <c r="H15" s="16">
-        <v>279407</v>
+        <v>301282</v>
       </c>
       <c r="I15" s="16">
         <v>0</v>
@@ -1725,10 +1725,10 @@
         <v>0</v>
       </c>
       <c r="K15" s="16">
-        <v>723</v>
+        <v>831</v>
       </c>
       <c r="L15" s="16">
-        <v>670</v>
+        <v>718</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1736,13 +1736,13 @@
         <v>24</v>
       </c>
       <c r="B16" s="16">
-        <v>401959</v>
+        <v>439335</v>
       </c>
       <c r="C16" s="16">
-        <v>347638</v>
+        <v>381954</v>
       </c>
       <c r="D16" s="17">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="E16" s="16">
         <v>0</v>
@@ -1751,10 +1751,10 @@
         <v>0</v>
       </c>
       <c r="G16" s="16">
-        <v>400698</v>
+        <v>437823</v>
       </c>
       <c r="H16" s="16">
-        <v>346619</v>
+        <v>380841</v>
       </c>
       <c r="I16" s="16">
         <v>0</v>
@@ -1763,10 +1763,10 @@
         <v>0</v>
       </c>
       <c r="K16" s="16">
-        <v>1261</v>
+        <v>1512</v>
       </c>
       <c r="L16" s="16">
-        <v>1019</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1774,37 +1774,37 @@
         <v>25</v>
       </c>
       <c r="B17" s="13">
-        <v>727565</v>
+        <v>787144</v>
       </c>
       <c r="C17" s="13">
-        <v>534797</v>
+        <v>588819</v>
       </c>
       <c r="D17" s="14">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
       <c r="E17" s="13">
-        <v>323935</v>
+        <v>348003</v>
       </c>
       <c r="F17" s="13">
-        <v>235568</v>
+        <v>261112</v>
       </c>
       <c r="G17" s="13">
-        <v>389779</v>
+        <v>423491</v>
       </c>
       <c r="H17" s="13">
-        <v>289346</v>
+        <v>316362</v>
       </c>
       <c r="I17" s="13">
-        <v>5369</v>
+        <v>5866</v>
       </c>
       <c r="J17" s="13">
-        <v>4096</v>
+        <v>4775</v>
       </c>
       <c r="K17" s="13">
-        <v>8483</v>
+        <v>9784</v>
       </c>
       <c r="L17" s="13">
-        <v>5788</v>
+        <v>6569</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1812,25 +1812,25 @@
         <v>26</v>
       </c>
       <c r="B18" s="16">
-        <v>120264</v>
+        <v>127821</v>
       </c>
       <c r="C18" s="16">
-        <v>59510</v>
+        <v>65815</v>
       </c>
       <c r="D18" s="17">
-        <v>1.02</v>
+        <v>0.94</v>
       </c>
       <c r="E18" s="16">
-        <v>11731</v>
+        <v>12137</v>
       </c>
       <c r="F18" s="16">
-        <v>4257</v>
+        <v>4462</v>
       </c>
       <c r="G18" s="16">
-        <v>108505</v>
+        <v>115651</v>
       </c>
       <c r="H18" s="16">
-        <v>55205</v>
+        <v>61301</v>
       </c>
       <c r="I18" s="16">
         <v>0</v>
@@ -1839,10 +1839,10 @@
         <v>0</v>
       </c>
       <c r="K18" s="16">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="L18" s="16">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1850,25 +1850,25 @@
         <v>27</v>
       </c>
       <c r="B19" s="16">
-        <v>122683</v>
+        <v>135614</v>
       </c>
       <c r="C19" s="16">
-        <v>90608</v>
+        <v>101392</v>
       </c>
       <c r="D19" s="17">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="E19" s="16">
-        <v>100425</v>
+        <v>111252</v>
       </c>
       <c r="F19" s="16">
-        <v>72404</v>
+        <v>80589</v>
       </c>
       <c r="G19" s="16">
-        <v>22258</v>
+        <v>24362</v>
       </c>
       <c r="H19" s="16">
-        <v>18204</v>
+        <v>20803</v>
       </c>
       <c r="I19" s="16">
         <v>0</v>
@@ -1888,37 +1888,37 @@
         <v>28</v>
       </c>
       <c r="B20" s="16">
-        <v>205316</v>
+        <v>222169</v>
       </c>
       <c r="C20" s="16">
-        <v>131212</v>
+        <v>144777</v>
       </c>
       <c r="D20" s="17">
-        <v>0.56000000000000005</v>
+        <v>0.53</v>
       </c>
       <c r="E20" s="16">
-        <v>74739</v>
+        <v>79053</v>
       </c>
       <c r="F20" s="16">
-        <v>40579</v>
+        <v>45355</v>
       </c>
       <c r="G20" s="16">
-        <v>120582</v>
+        <v>132112</v>
       </c>
       <c r="H20" s="16">
-        <v>83099</v>
+        <v>90760</v>
       </c>
       <c r="I20" s="16">
-        <v>5369</v>
+        <v>5866</v>
       </c>
       <c r="J20" s="16">
-        <v>4096</v>
+        <v>4775</v>
       </c>
       <c r="K20" s="16">
-        <v>4627</v>
+        <v>5138</v>
       </c>
       <c r="L20" s="16">
-        <v>3438</v>
+        <v>3886</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1926,25 +1926,25 @@
         <v>29</v>
       </c>
       <c r="B21" s="16">
-        <v>178000</v>
+        <v>193693</v>
       </c>
       <c r="C21" s="16">
-        <v>172321</v>
+        <v>187927</v>
       </c>
       <c r="D21" s="17">
-        <v>3.3000000000000002E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="E21" s="16">
-        <v>48380</v>
+        <v>51288</v>
       </c>
       <c r="F21" s="16">
-        <v>44978</v>
+        <v>50327</v>
       </c>
       <c r="G21" s="16">
-        <v>128710</v>
+        <v>141135</v>
       </c>
       <c r="H21" s="16">
-        <v>126559</v>
+        <v>136722</v>
       </c>
       <c r="I21" s="16">
         <v>0</v>
@@ -1953,10 +1953,10 @@
         <v>0</v>
       </c>
       <c r="K21" s="16">
-        <v>910</v>
+        <v>1270</v>
       </c>
       <c r="L21" s="16">
-        <v>785</v>
+        <v>877</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1964,25 +1964,25 @@
         <v>30</v>
       </c>
       <c r="B22" s="16">
-        <v>101302</v>
+        <v>107847</v>
       </c>
       <c r="C22" s="16">
-        <v>81147</v>
+        <v>88908</v>
       </c>
       <c r="D22" s="17">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
       <c r="E22" s="16">
-        <v>88660</v>
+        <v>94273</v>
       </c>
       <c r="F22" s="16">
-        <v>73351</v>
+        <v>80378</v>
       </c>
       <c r="G22" s="16">
-        <v>9723</v>
+        <v>10231</v>
       </c>
       <c r="H22" s="16">
-        <v>6279</v>
+        <v>6777</v>
       </c>
       <c r="I22" s="16">
         <v>0</v>
@@ -1991,10 +1991,10 @@
         <v>0</v>
       </c>
       <c r="K22" s="16">
-        <v>2919</v>
+        <v>3342</v>
       </c>
       <c r="L22" s="16">
-        <v>1517</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -2002,37 +2002,37 @@
         <v>31</v>
       </c>
       <c r="B23" s="13">
-        <v>149250</v>
+        <v>159006</v>
       </c>
       <c r="C23" s="13">
-        <v>114790</v>
+        <v>121510</v>
       </c>
       <c r="D23" s="14">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="E23" s="13">
-        <v>125049</v>
+        <v>133738</v>
       </c>
       <c r="F23" s="13">
-        <v>98058</v>
+        <v>103925</v>
       </c>
       <c r="G23" s="13">
-        <v>22655</v>
+        <v>23363</v>
       </c>
       <c r="H23" s="13">
-        <v>15443</v>
+        <v>16214</v>
       </c>
       <c r="I23" s="13">
-        <v>1259</v>
+        <v>1351</v>
       </c>
       <c r="J23" s="13">
-        <v>1019</v>
+        <v>1089</v>
       </c>
       <c r="K23" s="13">
-        <v>287</v>
+        <v>554</v>
       </c>
       <c r="L23" s="13">
-        <v>270</v>
+        <v>283</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -2040,19 +2040,19 @@
         <v>32</v>
       </c>
       <c r="B24" s="16">
-        <v>26740</v>
+        <v>28822</v>
       </c>
       <c r="C24" s="16">
-        <v>22111</v>
+        <v>22558</v>
       </c>
       <c r="D24" s="17">
-        <v>0.21</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="E24" s="16">
-        <v>26453</v>
+        <v>28268</v>
       </c>
       <c r="F24" s="16">
-        <v>22096</v>
+        <v>22541</v>
       </c>
       <c r="G24" s="16">
         <v>0</v>
@@ -2067,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="K24" s="16">
-        <v>287</v>
+        <v>554</v>
       </c>
       <c r="L24" s="16">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -2078,19 +2078,19 @@
         <v>33</v>
       </c>
       <c r="B25" s="16">
-        <v>14891</v>
+        <v>16071</v>
       </c>
       <c r="C25" s="16">
-        <v>10864</v>
+        <v>11443</v>
       </c>
       <c r="D25" s="17">
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
       <c r="E25" s="16">
-        <v>14891</v>
+        <v>16071</v>
       </c>
       <c r="F25" s="16">
-        <v>10864</v>
+        <v>11443</v>
       </c>
       <c r="G25" s="16">
         <v>0</v>
@@ -2116,31 +2116,31 @@
         <v>34</v>
       </c>
       <c r="B26" s="16">
-        <v>56795</v>
+        <v>60034</v>
       </c>
       <c r="C26" s="16">
-        <v>42986</v>
+        <v>45995</v>
       </c>
       <c r="D26" s="17">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="E26" s="16">
-        <v>44860</v>
+        <v>47641</v>
       </c>
       <c r="F26" s="16">
-        <v>36024</v>
+        <v>38727</v>
       </c>
       <c r="G26" s="16">
-        <v>11926</v>
+        <v>12383</v>
       </c>
       <c r="H26" s="16">
-        <v>6639</v>
+        <v>6945</v>
       </c>
       <c r="I26" s="16">
         <v>9</v>
       </c>
       <c r="J26" s="16">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K26" s="16">
         <v>0</v>
@@ -2154,31 +2154,31 @@
         <v>35</v>
       </c>
       <c r="B27" s="16">
-        <v>40448</v>
+        <v>42470</v>
       </c>
       <c r="C27" s="16">
-        <v>30582</v>
+        <v>32713</v>
       </c>
       <c r="D27" s="17">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="E27" s="16">
-        <v>28468</v>
+        <v>30149</v>
       </c>
       <c r="F27" s="16">
-        <v>20833</v>
+        <v>22429</v>
       </c>
       <c r="G27" s="16">
-        <v>10729</v>
+        <v>10980</v>
       </c>
       <c r="H27" s="16">
-        <v>8804</v>
+        <v>9269</v>
       </c>
       <c r="I27" s="16">
-        <v>1250</v>
+        <v>1341</v>
       </c>
       <c r="J27" s="16">
-        <v>945</v>
+        <v>1015</v>
       </c>
       <c r="K27" s="16">
         <v>0</v>
@@ -2192,19 +2192,19 @@
         <v>36</v>
       </c>
       <c r="B28" s="16">
-        <v>3588</v>
+        <v>4149</v>
       </c>
       <c r="C28" s="16">
-        <v>3258</v>
+        <v>3396</v>
       </c>
       <c r="D28" s="17">
-        <v>0.1</v>
+        <v>0.22</v>
       </c>
       <c r="E28" s="16">
-        <v>3588</v>
+        <v>4149</v>
       </c>
       <c r="F28" s="16">
-        <v>3253</v>
+        <v>3380</v>
       </c>
       <c r="G28" s="16">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="16">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -2230,19 +2230,19 @@
         <v>37</v>
       </c>
       <c r="B29" s="16">
-        <v>1651</v>
+        <v>1854</v>
       </c>
       <c r="C29" s="16">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="D29" s="17">
-        <v>2.27</v>
+        <v>2.64</v>
       </c>
       <c r="E29" s="16">
-        <v>1651</v>
+        <v>1854</v>
       </c>
       <c r="F29" s="16">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="G29" s="16">
         <v>0</v>
@@ -2268,19 +2268,19 @@
         <v>38</v>
       </c>
       <c r="B30" s="16">
-        <v>5137</v>
+        <v>5606</v>
       </c>
       <c r="C30" s="16">
-        <v>4483</v>
+        <v>4896</v>
       </c>
       <c r="D30" s="17">
         <v>0.15</v>
       </c>
       <c r="E30" s="16">
-        <v>5137</v>
+        <v>5606</v>
       </c>
       <c r="F30" s="16">
-        <v>4483</v>
+        <v>4896</v>
       </c>
       <c r="G30" s="16">
         <v>0</v>
@@ -2306,25 +2306,25 @@
         <v>39</v>
       </c>
       <c r="B31" s="13">
-        <v>2066513</v>
+        <v>2230562</v>
       </c>
       <c r="C31" s="13">
-        <v>1900778</v>
+        <v>2077531</v>
       </c>
       <c r="D31" s="14">
-        <v>8.6999999999999994E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="E31" s="13">
-        <v>1658689</v>
+        <v>1796821</v>
       </c>
       <c r="F31" s="13">
-        <v>1559720</v>
+        <v>1701730</v>
       </c>
       <c r="G31" s="13">
-        <v>375361</v>
+        <v>397507</v>
       </c>
       <c r="H31" s="13">
-        <v>306580</v>
+        <v>337798</v>
       </c>
       <c r="I31" s="13">
         <v>0</v>
@@ -2333,10 +2333,10 @@
         <v>0</v>
       </c>
       <c r="K31" s="13">
-        <v>32464</v>
+        <v>36234</v>
       </c>
       <c r="L31" s="13">
-        <v>34479</v>
+        <v>38004</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -2344,13 +2344,13 @@
         <v>40</v>
       </c>
       <c r="B32" s="16">
-        <v>56008</v>
+        <v>60443</v>
       </c>
       <c r="C32" s="16">
-        <v>48735</v>
+        <v>51761</v>
       </c>
       <c r="D32" s="17">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="E32" s="16">
         <v>0</v>
@@ -2359,10 +2359,10 @@
         <v>0</v>
       </c>
       <c r="G32" s="16">
-        <v>44254</v>
+        <v>47561</v>
       </c>
       <c r="H32" s="16">
-        <v>37093</v>
+        <v>39180</v>
       </c>
       <c r="I32" s="16">
         <v>0</v>
@@ -2371,10 +2371,10 @@
         <v>0</v>
       </c>
       <c r="K32" s="16">
-        <v>11754</v>
+        <v>12882</v>
       </c>
       <c r="L32" s="16">
-        <v>11642</v>
+        <v>12581</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -2420,25 +2420,25 @@
         <v>42</v>
       </c>
       <c r="B34" s="16">
-        <v>1001309</v>
+        <v>1075461</v>
       </c>
       <c r="C34" s="16">
-        <v>950379</v>
+        <v>1037463</v>
       </c>
       <c r="D34" s="17">
-        <v>5.3999999999999999E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="E34" s="16">
-        <v>925649</v>
+        <v>996106</v>
       </c>
       <c r="F34" s="16">
-        <v>908086</v>
+        <v>988028</v>
       </c>
       <c r="G34" s="16">
-        <v>75659</v>
+        <v>79355</v>
       </c>
       <c r="H34" s="16">
-        <v>41573</v>
+        <v>48620</v>
       </c>
       <c r="I34" s="16">
         <v>0</v>
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="16">
-        <v>720</v>
+        <v>815</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -2458,25 +2458,25 @@
         <v>43</v>
       </c>
       <c r="B35" s="16">
-        <v>338527</v>
+        <v>363323</v>
       </c>
       <c r="C35" s="16">
-        <v>310678</v>
+        <v>339544</v>
       </c>
       <c r="D35" s="17">
-        <v>0.09</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E35" s="16">
-        <v>254848</v>
+        <v>275386</v>
       </c>
       <c r="F35" s="16">
-        <v>221574</v>
+        <v>242084</v>
       </c>
       <c r="G35" s="16">
-        <v>75754</v>
+        <v>79158</v>
       </c>
       <c r="H35" s="16">
-        <v>78722</v>
+        <v>85832</v>
       </c>
       <c r="I35" s="16">
         <v>0</v>
@@ -2485,10 +2485,10 @@
         <v>0</v>
       </c>
       <c r="K35" s="16">
-        <v>7926</v>
+        <v>8779</v>
       </c>
       <c r="L35" s="16">
-        <v>10383</v>
+        <v>11628</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -2496,13 +2496,13 @@
         <v>44</v>
       </c>
       <c r="B36" s="16">
-        <v>46457</v>
+        <v>46978</v>
       </c>
       <c r="C36" s="16">
-        <v>31573</v>
+        <v>34579</v>
       </c>
       <c r="D36" s="17">
-        <v>0.47</v>
+        <v>0.36</v>
       </c>
       <c r="E36" s="16">
         <v>0</v>
@@ -2511,10 +2511,10 @@
         <v>0</v>
       </c>
       <c r="G36" s="16">
-        <v>44652</v>
+        <v>45001</v>
       </c>
       <c r="H36" s="16">
-        <v>31296</v>
+        <v>34250</v>
       </c>
       <c r="I36" s="16">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="K36" s="16">
-        <v>1804</v>
+        <v>1977</v>
       </c>
       <c r="L36" s="16">
-        <v>277</v>
+        <v>329</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -2534,25 +2534,25 @@
         <v>45</v>
       </c>
       <c r="B37" s="16">
-        <v>247162</v>
+        <v>270909</v>
       </c>
       <c r="C37" s="16">
-        <v>228341</v>
+        <v>250975</v>
       </c>
       <c r="D37" s="17">
-        <v>8.2000000000000003E-2</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="E37" s="16">
-        <v>212560</v>
+        <v>234684</v>
       </c>
       <c r="F37" s="16">
-        <v>197225</v>
+        <v>218166</v>
       </c>
       <c r="G37" s="16">
-        <v>34602</v>
+        <v>36225</v>
       </c>
       <c r="H37" s="16">
-        <v>26367</v>
+        <v>27584</v>
       </c>
       <c r="I37" s="16">
         <v>0</v>
@@ -2564,7 +2564,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="16">
-        <v>4750</v>
+        <v>5225</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -2572,25 +2572,25 @@
         <v>46</v>
       </c>
       <c r="B38" s="16">
-        <v>109616</v>
+        <v>122930</v>
       </c>
       <c r="C38" s="16">
-        <v>106480</v>
+        <v>120184</v>
       </c>
       <c r="D38" s="17">
-        <v>2.9000000000000001E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="E38" s="16">
-        <v>90243</v>
+        <v>99108</v>
       </c>
       <c r="F38" s="16">
-        <v>96026</v>
+        <v>108111</v>
       </c>
       <c r="G38" s="16">
-        <v>17794</v>
+        <v>22132</v>
       </c>
       <c r="H38" s="16">
-        <v>9940</v>
+        <v>11486</v>
       </c>
       <c r="I38" s="16">
         <v>0</v>
@@ -2599,10 +2599,10 @@
         <v>0</v>
       </c>
       <c r="K38" s="16">
-        <v>1579</v>
+        <v>1689</v>
       </c>
       <c r="L38" s="16">
-        <v>514</v>
+        <v>586</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -2610,25 +2610,25 @@
         <v>47</v>
       </c>
       <c r="B39" s="16">
-        <v>254873</v>
+        <v>276853</v>
       </c>
       <c r="C39" s="16">
-        <v>212614</v>
+        <v>230309</v>
       </c>
       <c r="D39" s="17">
         <v>0.2</v>
       </c>
       <c r="E39" s="16">
-        <v>174016</v>
+        <v>190041</v>
       </c>
       <c r="F39" s="16">
-        <v>135464</v>
+        <v>143968</v>
       </c>
       <c r="G39" s="16">
-        <v>74322</v>
+        <v>79492</v>
       </c>
       <c r="H39" s="16">
-        <v>70957</v>
+        <v>79500</v>
       </c>
       <c r="I39" s="16">
         <v>0</v>
@@ -2637,10 +2637,10 @@
         <v>0</v>
       </c>
       <c r="K39" s="16">
-        <v>6535</v>
+        <v>7321</v>
       </c>
       <c r="L39" s="16">
-        <v>6193</v>
+        <v>6840</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -2648,25 +2648,25 @@
         <v>48</v>
       </c>
       <c r="B40" s="16">
-        <v>12562</v>
+        <v>13665</v>
       </c>
       <c r="C40" s="16">
-        <v>11977</v>
+        <v>12716</v>
       </c>
       <c r="D40" s="17">
-        <v>4.9000000000000002E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="E40" s="16">
-        <v>1373</v>
+        <v>1495</v>
       </c>
       <c r="F40" s="16">
-        <v>1344</v>
+        <v>1372</v>
       </c>
       <c r="G40" s="16">
-        <v>8323</v>
+        <v>8584</v>
       </c>
       <c r="H40" s="16">
-        <v>10633</v>
+        <v>11345</v>
       </c>
       <c r="I40" s="16">
         <v>0</v>
@@ -2675,7 +2675,7 @@
         <v>0</v>
       </c>
       <c r="K40" s="16">
-        <v>2865</v>
+        <v>3586</v>
       </c>
       <c r="L40" s="16">
         <v>0</v>
@@ -2686,25 +2686,25 @@
         <v>49</v>
       </c>
       <c r="B41" s="13">
-        <v>802223</v>
+        <v>865383</v>
       </c>
       <c r="C41" s="13">
-        <v>706977</v>
+        <v>775826</v>
       </c>
       <c r="D41" s="14">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="E41" s="13">
-        <v>529376</v>
+        <v>570083</v>
       </c>
       <c r="F41" s="13">
-        <v>435835</v>
+        <v>480542</v>
       </c>
       <c r="G41" s="13">
-        <v>263894</v>
+        <v>284988</v>
       </c>
       <c r="H41" s="13">
-        <v>262725</v>
+        <v>285943</v>
       </c>
       <c r="I41" s="13">
         <v>0</v>
@@ -2713,10 +2713,10 @@
         <v>0</v>
       </c>
       <c r="K41" s="13">
-        <v>8953</v>
+        <v>10312</v>
       </c>
       <c r="L41" s="13">
-        <v>8417</v>
+        <v>9341</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -2724,25 +2724,25 @@
         <v>50</v>
       </c>
       <c r="B42" s="16">
-        <v>335074</v>
+        <v>364400</v>
       </c>
       <c r="C42" s="16">
-        <v>315850</v>
+        <v>345753</v>
       </c>
       <c r="D42" s="17">
-        <v>6.0999999999999999E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="E42" s="16">
-        <v>97215</v>
+        <v>105643</v>
       </c>
       <c r="F42" s="16">
-        <v>78159</v>
+        <v>87230</v>
       </c>
       <c r="G42" s="16">
-        <v>237859</v>
+        <v>258756</v>
       </c>
       <c r="H42" s="16">
-        <v>237691</v>
+        <v>258523</v>
       </c>
       <c r="I42" s="16">
         <v>0</v>
@@ -2762,22 +2762,22 @@
         <v>51</v>
       </c>
       <c r="B43" s="16">
-        <v>57704</v>
+        <v>61894</v>
       </c>
       <c r="C43" s="16">
-        <v>45248</v>
+        <v>50880</v>
       </c>
       <c r="D43" s="17">
-        <v>0.28000000000000003</v>
+        <v>0.22</v>
       </c>
       <c r="E43" s="16">
-        <v>52636</v>
+        <v>56644</v>
       </c>
       <c r="F43" s="16">
-        <v>39312</v>
+        <v>44945</v>
       </c>
       <c r="G43" s="16">
-        <v>5067</v>
+        <v>5250</v>
       </c>
       <c r="H43" s="16">
         <v>5935</v>
@@ -2800,25 +2800,25 @@
         <v>52</v>
       </c>
       <c r="B44" s="16">
-        <v>324232</v>
+        <v>348829</v>
       </c>
       <c r="C44" s="16">
-        <v>279307</v>
+        <v>306243</v>
       </c>
       <c r="D44" s="17">
-        <v>0.16</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E44" s="16">
-        <v>303264</v>
+        <v>327847</v>
       </c>
       <c r="F44" s="16">
-        <v>260208</v>
+        <v>284758</v>
       </c>
       <c r="G44" s="16">
-        <v>20968</v>
+        <v>20982</v>
       </c>
       <c r="H44" s="16">
-        <v>19099</v>
+        <v>21485</v>
       </c>
       <c r="I44" s="16">
         <v>0</v>
@@ -2838,19 +2838,19 @@
         <v>53</v>
       </c>
       <c r="B45" s="16">
-        <v>85213</v>
+        <v>90260</v>
       </c>
       <c r="C45" s="16">
-        <v>66573</v>
+        <v>72950</v>
       </c>
       <c r="D45" s="17">
-        <v>0.28000000000000003</v>
+        <v>0.24</v>
       </c>
       <c r="E45" s="16">
-        <v>76260</v>
+        <v>79948</v>
       </c>
       <c r="F45" s="16">
-        <v>58156</v>
+        <v>63609</v>
       </c>
       <c r="G45" s="16">
         <v>0</v>
@@ -2865,10 +2865,10 @@
         <v>0</v>
       </c>
       <c r="K45" s="16">
-        <v>8953</v>
+        <v>10312</v>
       </c>
       <c r="L45" s="16">
-        <v>8417</v>
+        <v>9341</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -2876,25 +2876,25 @@
         <v>54</v>
       </c>
       <c r="B46" s="13">
-        <v>2480147</v>
+        <v>2677813</v>
       </c>
       <c r="C46" s="13">
-        <v>2462044</v>
+        <v>2678026</v>
       </c>
       <c r="D46" s="14">
-        <v>7.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="E46" s="13">
-        <v>766906</v>
+        <v>820280</v>
       </c>
       <c r="F46" s="13">
-        <v>710049</v>
+        <v>768600</v>
       </c>
       <c r="G46" s="13">
-        <v>1199020</v>
+        <v>1290496</v>
       </c>
       <c r="H46" s="13">
-        <v>1224786</v>
+        <v>1327988</v>
       </c>
       <c r="I46" s="13">
         <v>0</v>
@@ -2903,10 +2903,10 @@
         <v>0</v>
       </c>
       <c r="K46" s="13">
-        <v>514221</v>
+        <v>567037</v>
       </c>
       <c r="L46" s="13">
-        <v>527210</v>
+        <v>581439</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -2914,25 +2914,25 @@
         <v>55</v>
       </c>
       <c r="B47" s="16">
-        <v>116169</v>
+        <v>126612</v>
       </c>
       <c r="C47" s="16">
-        <v>96834</v>
+        <v>102556</v>
       </c>
       <c r="D47" s="17">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="E47" s="16">
-        <v>45315</v>
+        <v>49229</v>
       </c>
       <c r="F47" s="16">
-        <v>26727</v>
+        <v>28391</v>
       </c>
       <c r="G47" s="16">
-        <v>69003</v>
+        <v>75355</v>
       </c>
       <c r="H47" s="16">
-        <v>66929</v>
+        <v>70604</v>
       </c>
       <c r="I47" s="16">
         <v>0</v>
@@ -2941,10 +2941,10 @@
         <v>0</v>
       </c>
       <c r="K47" s="16">
-        <v>1850</v>
+        <v>2029</v>
       </c>
       <c r="L47" s="16">
-        <v>3177</v>
+        <v>3562</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -2952,25 +2952,25 @@
         <v>56</v>
       </c>
       <c r="B48" s="16">
-        <v>462733</v>
+        <v>500251</v>
       </c>
       <c r="C48" s="16">
-        <v>443353</v>
+        <v>490690</v>
       </c>
       <c r="D48" s="17">
-        <v>4.3999999999999997E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="E48" s="16">
-        <v>240899</v>
+        <v>257589</v>
       </c>
       <c r="F48" s="16">
-        <v>249382</v>
+        <v>274513</v>
       </c>
       <c r="G48" s="16">
-        <v>43851</v>
+        <v>46811</v>
       </c>
       <c r="H48" s="16">
-        <v>26750</v>
+        <v>30815</v>
       </c>
       <c r="I48" s="16">
         <v>0</v>
@@ -2979,10 +2979,10 @@
         <v>0</v>
       </c>
       <c r="K48" s="16">
-        <v>177983</v>
+        <v>195852</v>
       </c>
       <c r="L48" s="16">
-        <v>167221</v>
+        <v>185361</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -2990,25 +2990,25 @@
         <v>57</v>
       </c>
       <c r="B49" s="16">
-        <v>238154</v>
+        <v>258821</v>
       </c>
       <c r="C49" s="16">
-        <v>211018</v>
+        <v>231430</v>
       </c>
       <c r="D49" s="17">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="E49" s="16">
-        <v>167423</v>
+        <v>181389</v>
       </c>
       <c r="F49" s="16">
-        <v>138015</v>
+        <v>151723</v>
       </c>
       <c r="G49" s="16">
-        <v>70731</v>
+        <v>77432</v>
       </c>
       <c r="H49" s="16">
-        <v>72544</v>
+        <v>79127</v>
       </c>
       <c r="I49" s="16">
         <v>0</v>
@@ -3020,7 +3020,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="16">
-        <v>459</v>
+        <v>579</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -3028,25 +3028,25 @@
         <v>58</v>
       </c>
       <c r="B50" s="16">
-        <v>1663092</v>
+        <v>1792129</v>
       </c>
       <c r="C50" s="16">
-        <v>1710839</v>
+        <v>1853351</v>
       </c>
       <c r="D50" s="17">
-        <v>-2.8000000000000001E-2</v>
+        <v>-3.3000000000000002E-2</v>
       </c>
       <c r="E50" s="16">
-        <v>313269</v>
+        <v>332074</v>
       </c>
       <c r="F50" s="16">
-        <v>295924</v>
+        <v>313972</v>
       </c>
       <c r="G50" s="16">
-        <v>1015435</v>
+        <v>1090898</v>
       </c>
       <c r="H50" s="16">
-        <v>1058563</v>
+        <v>1147442</v>
       </c>
       <c r="I50" s="16">
         <v>0</v>
@@ -3055,10 +3055,10 @@
         <v>0</v>
       </c>
       <c r="K50" s="16">
-        <v>334388</v>
+        <v>369157</v>
       </c>
       <c r="L50" s="16">
-        <v>356352</v>
+        <v>391937</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -3066,25 +3066,25 @@
         <v>59</v>
       </c>
       <c r="B51" s="13">
-        <v>600929</v>
+        <v>640116</v>
       </c>
       <c r="C51" s="13">
-        <v>564926</v>
+        <v>617320</v>
       </c>
       <c r="D51" s="14">
-        <v>6.4000000000000001E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="E51" s="13">
-        <v>461130</v>
+        <v>493342</v>
       </c>
       <c r="F51" s="13">
-        <v>423608</v>
+        <v>464204</v>
       </c>
       <c r="G51" s="13">
-        <v>139149</v>
+        <v>146074</v>
       </c>
       <c r="H51" s="13">
-        <v>140829</v>
+        <v>152609</v>
       </c>
       <c r="I51" s="13">
         <v>0</v>
@@ -3093,10 +3093,10 @@
         <v>0</v>
       </c>
       <c r="K51" s="13">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L51" s="13">
-        <v>489</v>
+        <v>508</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -3104,25 +3104,25 @@
         <v>60</v>
       </c>
       <c r="B52" s="16">
-        <v>231321</v>
+        <v>242605</v>
       </c>
       <c r="C52" s="16">
-        <v>212416</v>
+        <v>229937</v>
       </c>
       <c r="D52" s="17">
-        <v>8.8999999999999996E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="E52" s="16">
-        <v>134330</v>
+        <v>141135</v>
       </c>
       <c r="F52" s="16">
-        <v>116965</v>
+        <v>127375</v>
       </c>
       <c r="G52" s="16">
-        <v>96991</v>
+        <v>101469</v>
       </c>
       <c r="H52" s="16">
-        <v>95451</v>
+        <v>102561</v>
       </c>
       <c r="I52" s="16">
         <v>0</v>
@@ -3142,25 +3142,25 @@
         <v>61</v>
       </c>
       <c r="B53" s="16">
-        <v>78434</v>
+        <v>83801</v>
       </c>
       <c r="C53" s="16">
-        <v>70337</v>
+        <v>79584</v>
       </c>
       <c r="D53" s="17">
-        <v>0.12</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="E53" s="16">
-        <v>66151</v>
+        <v>70651</v>
       </c>
       <c r="F53" s="16">
-        <v>55624</v>
+        <v>63720</v>
       </c>
       <c r="G53" s="16">
-        <v>12283</v>
+        <v>13150</v>
       </c>
       <c r="H53" s="16">
-        <v>14713</v>
+        <v>15864</v>
       </c>
       <c r="I53" s="16">
         <v>0</v>
@@ -3180,25 +3180,25 @@
         <v>62</v>
       </c>
       <c r="B54" s="16">
-        <v>18605</v>
+        <v>19319</v>
       </c>
       <c r="C54" s="16">
-        <v>19929</v>
+        <v>21890</v>
       </c>
       <c r="D54" s="17">
-        <v>-6.6000000000000003E-2</v>
+        <v>-0.12</v>
       </c>
       <c r="E54" s="16">
-        <v>11078</v>
+        <v>11308</v>
       </c>
       <c r="F54" s="16">
-        <v>11846</v>
+        <v>12663</v>
       </c>
       <c r="G54" s="16">
-        <v>7527</v>
+        <v>8011</v>
       </c>
       <c r="H54" s="16">
-        <v>8083</v>
+        <v>9227</v>
       </c>
       <c r="I54" s="16">
         <v>0</v>
@@ -3221,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="C55" s="16">
-        <v>3930</v>
+        <v>4379</v>
       </c>
       <c r="D55" s="17">
         <v>-1</v>
@@ -3230,13 +3230,13 @@
         <v>0</v>
       </c>
       <c r="F55" s="16">
-        <v>3913</v>
+        <v>4362</v>
       </c>
       <c r="G55" s="16">
         <v>0</v>
       </c>
       <c r="H55" s="16">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I55" s="16">
         <v>0</v>
@@ -3256,19 +3256,19 @@
         <v>64</v>
       </c>
       <c r="B56" s="16">
-        <v>162691</v>
+        <v>176758</v>
       </c>
       <c r="C56" s="16">
-        <v>160354</v>
+        <v>174201</v>
       </c>
       <c r="D56" s="17">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="E56" s="16">
-        <v>162691</v>
+        <v>176758</v>
       </c>
       <c r="F56" s="16">
-        <v>160354</v>
+        <v>174201</v>
       </c>
       <c r="G56" s="16">
         <v>0</v>
@@ -3294,25 +3294,25 @@
         <v>65</v>
       </c>
       <c r="B57" s="16">
-        <v>62884</v>
+        <v>67595</v>
       </c>
       <c r="C57" s="16">
-        <v>54786</v>
+        <v>59704</v>
       </c>
       <c r="D57" s="17">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="E57" s="16">
-        <v>41527</v>
+        <v>45218</v>
       </c>
       <c r="F57" s="16">
-        <v>33290</v>
+        <v>35842</v>
       </c>
       <c r="G57" s="16">
-        <v>21358</v>
+        <v>22377</v>
       </c>
       <c r="H57" s="16">
-        <v>21496</v>
+        <v>23861</v>
       </c>
       <c r="I57" s="16">
         <v>0</v>
@@ -3332,25 +3332,25 @@
         <v>66</v>
       </c>
       <c r="B58" s="16">
-        <v>46962</v>
+        <v>50003</v>
       </c>
       <c r="C58" s="16">
-        <v>42246</v>
+        <v>46558</v>
       </c>
       <c r="D58" s="17">
-        <v>0.11</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="E58" s="16">
-        <v>45322</v>
+        <v>48235</v>
       </c>
       <c r="F58" s="16">
-        <v>40696</v>
+        <v>44981</v>
       </c>
       <c r="G58" s="16">
-        <v>990</v>
+        <v>1068</v>
       </c>
       <c r="H58" s="16">
-        <v>1061</v>
+        <v>1070</v>
       </c>
       <c r="I58" s="16">
         <v>0</v>
@@ -3359,10 +3359,10 @@
         <v>0</v>
       </c>
       <c r="K58" s="16">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L58" s="16">
-        <v>489</v>
+        <v>508</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -3370,19 +3370,19 @@
         <v>67</v>
       </c>
       <c r="B59" s="16">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C59" s="16">
-        <v>927</v>
+        <v>1068</v>
       </c>
       <c r="D59" s="17">
         <v>-0.97</v>
       </c>
       <c r="E59" s="16">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F59" s="16">
-        <v>920</v>
+        <v>1061</v>
       </c>
       <c r="G59" s="16">
         <v>0</v>
@@ -3408,25 +3408,25 @@
         <v>68</v>
       </c>
       <c r="B60" s="13">
-        <v>635559</v>
+        <v>692926</v>
       </c>
       <c r="C60" s="13">
-        <v>741308</v>
+        <v>812569</v>
       </c>
       <c r="D60" s="14">
-        <v>-0.14000000000000001</v>
+        <v>-0.15</v>
       </c>
       <c r="E60" s="13">
-        <v>253234</v>
+        <v>275989</v>
       </c>
       <c r="F60" s="13">
-        <v>273965</v>
+        <v>302245</v>
       </c>
       <c r="G60" s="13">
-        <v>349072</v>
+        <v>380441</v>
       </c>
       <c r="H60" s="13">
-        <v>435510</v>
+        <v>474851</v>
       </c>
       <c r="I60" s="13">
         <v>0</v>
@@ -3435,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="K60" s="13">
-        <v>33253</v>
+        <v>36496</v>
       </c>
       <c r="L60" s="13">
-        <v>31833</v>
+        <v>35473</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -3446,25 +3446,25 @@
         <v>69</v>
       </c>
       <c r="B61" s="16">
-        <v>497908</v>
+        <v>544127</v>
       </c>
       <c r="C61" s="16">
-        <v>609860</v>
+        <v>663787</v>
       </c>
       <c r="D61" s="17">
         <v>-0.18</v>
       </c>
       <c r="E61" s="16">
-        <v>176070</v>
+        <v>191646</v>
       </c>
       <c r="F61" s="16">
-        <v>196936</v>
+        <v>215534</v>
       </c>
       <c r="G61" s="16">
-        <v>288584</v>
+        <v>315986</v>
       </c>
       <c r="H61" s="16">
-        <v>381090</v>
+        <v>412779</v>
       </c>
       <c r="I61" s="16">
         <v>0</v>
@@ -3473,10 +3473,10 @@
         <v>0</v>
       </c>
       <c r="K61" s="16">
-        <v>33253</v>
+        <v>36496</v>
       </c>
       <c r="L61" s="16">
-        <v>31833</v>
+        <v>35473</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -3484,25 +3484,25 @@
         <v>70</v>
       </c>
       <c r="B62" s="16">
-        <v>79409</v>
+        <v>87125</v>
       </c>
       <c r="C62" s="16">
-        <v>68203</v>
+        <v>76723</v>
       </c>
       <c r="D62" s="17">
-        <v>0.16</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E62" s="16">
-        <v>41874</v>
+        <v>46145</v>
       </c>
       <c r="F62" s="16">
-        <v>36722</v>
+        <v>41114</v>
       </c>
       <c r="G62" s="16">
-        <v>37535</v>
+        <v>40980</v>
       </c>
       <c r="H62" s="16">
-        <v>31481</v>
+        <v>35609</v>
       </c>
       <c r="I62" s="16">
         <v>0</v>
@@ -3522,25 +3522,25 @@
         <v>71</v>
       </c>
       <c r="B63" s="16">
-        <v>58243</v>
+        <v>61674</v>
       </c>
       <c r="C63" s="16">
-        <v>63246</v>
+        <v>72059</v>
       </c>
       <c r="D63" s="17">
-        <v>-7.9000000000000001E-2</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="E63" s="16">
-        <v>35290</v>
+        <v>38198</v>
       </c>
       <c r="F63" s="16">
-        <v>40307</v>
+        <v>45597</v>
       </c>
       <c r="G63" s="16">
-        <v>22953</v>
+        <v>23476</v>
       </c>
       <c r="H63" s="16">
-        <v>22939</v>
+        <v>26462</v>
       </c>
       <c r="I63" s="16">
         <v>0</v>
@@ -3560,19 +3560,19 @@
         <v>72</v>
       </c>
       <c r="B64" s="13">
-        <v>11063</v>
+        <v>12074</v>
       </c>
       <c r="C64" s="13">
-        <v>13089</v>
+        <v>14462</v>
       </c>
       <c r="D64" s="14">
-        <v>-0.15</v>
+        <v>-0.17</v>
       </c>
       <c r="E64" s="13">
-        <v>11063</v>
+        <v>12074</v>
       </c>
       <c r="F64" s="13">
-        <v>13089</v>
+        <v>14462</v>
       </c>
       <c r="G64" s="13">
         <v>0</v>
@@ -3598,19 +3598,19 @@
         <v>73</v>
       </c>
       <c r="B65" s="16">
-        <v>11063</v>
+        <v>12074</v>
       </c>
       <c r="C65" s="16">
-        <v>13089</v>
+        <v>14462</v>
       </c>
       <c r="D65" s="17">
-        <v>-0.15</v>
+        <v>-0.17</v>
       </c>
       <c r="E65" s="16">
-        <v>11063</v>
+        <v>12074</v>
       </c>
       <c r="F65" s="16">
-        <v>13089</v>
+        <v>14462</v>
       </c>
       <c r="G65" s="16">
         <v>0</v>
@@ -3674,37 +3674,37 @@
         <v>75</v>
       </c>
       <c r="B67" s="13">
-        <v>8836876</v>
+        <v>9534590</v>
       </c>
       <c r="C67" s="13">
-        <v>8292381</v>
+        <v>9050883</v>
       </c>
       <c r="D67" s="14">
-        <v>6.6000000000000003E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="E67" s="13">
-        <v>4220826</v>
+        <v>4547331</v>
       </c>
       <c r="F67" s="13">
-        <v>3837110</v>
+        <v>4191468</v>
       </c>
       <c r="G67" s="13">
-        <v>4009129</v>
+        <v>4316582</v>
       </c>
       <c r="H67" s="13">
-        <v>3839983</v>
+        <v>4180105</v>
       </c>
       <c r="I67" s="13">
-        <v>6628</v>
+        <v>7217</v>
       </c>
       <c r="J67" s="13">
-        <v>5114</v>
+        <v>5863</v>
       </c>
       <c r="K67" s="13">
-        <v>600294</v>
+        <v>663461</v>
       </c>
       <c r="L67" s="13">
-        <v>610174</v>
+        <v>673448</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
